--- a/xls/MKČR-Institut umění - Divadelní ústav_Local.xlsx
+++ b/xls/MKČR-Institut umění - Divadelní ústav_Local.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="147">
   <si>
     <t>YEAR</t>
   </si>
@@ -71,6 +71,390 @@
   </si>
   <si>
     <t>VO</t>
+  </si>
+  <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
+    <t>Jsc</t>
+  </si>
+  <si>
+    <t>Ježková, Petra, 5959187</t>
+  </si>
+  <si>
+    <t>Velemanová, Věra, 8076405</t>
+  </si>
+  <si>
+    <t>Kosák, Michal, 4296184; Pospíšil, Jan, 1490036</t>
+  </si>
+  <si>
+    <t>Scherl, Adolf, 2232286</t>
+  </si>
+  <si>
+    <t>Petišková, Ladislava, 5350569</t>
+  </si>
+  <si>
+    <t>Sommer-Mathis, Andrea</t>
+  </si>
+  <si>
+    <t>Trávníčková, Markéta, 3762386</t>
+  </si>
+  <si>
+    <t>Neuhuber, Christian</t>
+  </si>
+  <si>
+    <t>Rudin, Bärbel</t>
+  </si>
+  <si>
+    <t>Pernerstorfer, Matthias J.</t>
+  </si>
+  <si>
+    <t>Ziegler, Frank</t>
+  </si>
+  <si>
+    <t>Bohadlová, Kateřina, 4623436</t>
+  </si>
+  <si>
+    <t>Petišková, Ladislava</t>
+  </si>
+  <si>
+    <t>Jakubcová, Alena, 2367408</t>
+  </si>
+  <si>
+    <t>Patočková, Jana, 5415195</t>
+  </si>
+  <si>
+    <t>Petružela, Jan, 4729498</t>
+  </si>
+  <si>
+    <t>Sochorová, Ludmila, 6007503</t>
+  </si>
+  <si>
+    <t>Mikuláš, Jiří, 1901702</t>
+  </si>
+  <si>
+    <t>Vangeli, Nina, 8147566</t>
+  </si>
+  <si>
+    <t>Mikulka, Vladimír, 4255798</t>
+  </si>
+  <si>
+    <t>Dočkalová, Monika, 4558626</t>
+  </si>
+  <si>
+    <t>Švejda, Martin J., 5339855</t>
+  </si>
+  <si>
+    <t>Císař, Jan, 2307855</t>
+  </si>
+  <si>
+    <t>Švejda, Martin, 5339855</t>
+  </si>
+  <si>
+    <t>Novozámská, Martina, 8834032</t>
+  </si>
+  <si>
+    <t>Ludvová, Jitka, 7089287</t>
+  </si>
+  <si>
+    <t>Jakubcová, Alena, 2367408;Reitterer, Hubert</t>
+  </si>
+  <si>
+    <t>Pinkerová, Helena, 6823408</t>
+  </si>
+  <si>
+    <t>Hanoušek, Martin, 5754178</t>
+  </si>
+  <si>
+    <t>Kasa nebo umění? Priority dramaturgie Stavovského divadla 1920?1940</t>
+  </si>
+  <si>
+    <t>Příběh českého divadelního kostýmu</t>
+  </si>
+  <si>
+    <t>K připravovanému výboru textů Josefa Kodíčka o divadle</t>
+  </si>
+  <si>
+    <t>Uvažování o vývoji divadla v českých zemích v době osvícenství</t>
+  </si>
+  <si>
+    <t>Spolupráce Jarmily Kröschlové s avantgardními režiséry a Národním divadlem v Praze</t>
+  </si>
+  <si>
+    <t>Die Anfänge des Wiener Kärntnertortheaters zwischen deutschsprachiger Stegreifkomödie und italienischer Oper</t>
+  </si>
+  <si>
+    <t>Záhada kolem písní z Fidlovačky v Divadelním oddělení Národního muzea</t>
+  </si>
+  <si>
+    <t>Der Baron Wurstelsprung. Kontextualisierung, Analyse und Edition einer Krumauer Hanswurst- Burleske</t>
+  </si>
+  <si>
+    <t>Von Baden nach Böhmen und retour. Neues aus der Frühzeit der deutschen Molière-Rezeption</t>
+  </si>
+  <si>
+    <t>Heckentheater in kaiserlichen Gärten, adeligen Gartenpalais und auf den Landsitzen (1683-1740)</t>
+  </si>
+  <si>
+    <t>Daniel Gottlieb Quandt a jeho Allgemeiner Deutscher Theater-Anzeiger jako svědectví o první pražské sezoně Carla Marii von Webera v roli hudebního ředitele</t>
+  </si>
+  <si>
+    <t>Giovan Battista Andreini: Dvě komedie v komedii</t>
+  </si>
+  <si>
+    <t>Poslední Mohykán ze Slaného</t>
+  </si>
+  <si>
+    <t>Odpor ke geometrii. Soubor Děrevo v Praze v letech 1991-1992</t>
+  </si>
+  <si>
+    <t>"Dobré pověsti je třeba každému - pro ředitele divadla je však nezbytnou rekvizitou." Václav Mihule na Moravě a ve Slezsku v letech 1800-1808</t>
+  </si>
+  <si>
+    <t>Na cestě k novému divadlu. Založení a premiéra Divadla za branou v dobovém politicko-kulturním kontextu</t>
+  </si>
+  <si>
+    <t>Slibně rozehraný poločas (Strukturalistický poločas)</t>
+  </si>
+  <si>
+    <t>"Ej, povstaň, Minervo česká..." Ze života zapomenutých dramatiků i herců Vlastenského divadla</t>
+  </si>
+  <si>
+    <t>Dožínky v Bubenči roku 1792 jako plenérová inscenace s hudbou Vinzenze Maschka</t>
+  </si>
+  <si>
+    <t>Sen dvou vězňů. Cesta k celistvosti. Duální princip prostupující inscenací Genetových Služek v režii Petra Lébla</t>
+  </si>
+  <si>
+    <t>Poslední lartpourlartista P. L.</t>
+  </si>
+  <si>
+    <t>Postkomunistická dvacetiletka Karla Steigerwalda</t>
+  </si>
+  <si>
+    <t>Ředitel Adolf Franckel. Prameny k německému divadlu v Brně 1866-1875</t>
+  </si>
+  <si>
+    <t>Tato inscenace v nás vyvolává pocit vítězství... (Divadlo Na zábradlí a Largo desolato)</t>
+  </si>
+  <si>
+    <t>„Mizí ta cizota, která se kladla mezi dva národy obývající jednu zemi“? Otokar Fischer v Národním divadle: česko-německý diplomat na sklonku třicátých let</t>
+  </si>
+  <si>
+    <t>Martin Neureutter ml. známý i neznámý</t>
+  </si>
+  <si>
+    <t>Stavovské divadlo v kontextu střední Evropy</t>
+  </si>
+  <si>
+    <t>"Ivan věděl, že mám žízeň po divadle:" Alex Koenigsmark a Činoherní studio</t>
+  </si>
+  <si>
+    <t>Nebát se a hrát. Čtyři politické inscenace z konce osmdesátých let</t>
+  </si>
+  <si>
+    <t>Dramatika období ?Sturm und Drang? ve Stavovském divadle 1783-1848</t>
+  </si>
+  <si>
+    <t>Trojí spíše letmé setkání. František Tröster a Alfréd Radok</t>
+  </si>
+  <si>
+    <t>Divadelní fotografie první poloviny šedesátých let 19. století (s přihlédnutím k Shakespearovským slavnostem roku 1864)</t>
+  </si>
+  <si>
+    <t>Bernhard Gutt a jeho portrét</t>
+  </si>
+  <si>
+    <t>Konečná stanice Košice. Poslední angažmá principála Václava Mihuleho</t>
+  </si>
+  <si>
+    <t>"Génius umění s odvrácenou tváří prchne." Stavovské divadlo v Praze 1827</t>
+  </si>
+  <si>
+    <t>Zámecké divadlo rodiny Nostitzů v Měšicích u Prahy. Příspěvek k dějinám šlechtických zámeckých divadel v českých zemích</t>
+  </si>
+  <si>
+    <t>K nejstarším dějinám divadelní cenzury v Čechách</t>
+  </si>
+  <si>
+    <t>Alexander Moissi a Praha (dokumenty k biografii)</t>
+  </si>
+  <si>
+    <t>Kořeny zla 1967. Neznámá skica divadelní inscenace Alfréda Radoka o politických procesech.</t>
+  </si>
+  <si>
+    <t>Pražské podzimní debaty Teatrologické společnosti (K výzkumu divadla 50. let; K metodologii divadelního výzkumu: analýzy inscenací malých scén.)</t>
+  </si>
+  <si>
+    <t>Franz Alois Mussik (1779 - 1848). Osobnost severních a západních Čech</t>
+  </si>
+  <si>
+    <t>Ivan Bilibin a Nikolaj Benois: československá zastavení (Ruští scénografové ve spolupráci s Prahou a Brnem)</t>
+  </si>
+  <si>
+    <t>0862-5409</t>
+  </si>
+  <si>
+    <t>Divadelní revue</t>
+  </si>
+  <si>
+    <t>Divadelní reuve</t>
+  </si>
+  <si>
+    <t>1 - SPOLEČENSKÉ, HUMANITNÍ a UMĚLECKÉ VĚDY -  SHVa</t>
+  </si>
+  <si>
+    <t>03c25b8851eadbb09d833d4f6029472d8ddd5cea</t>
+  </si>
+  <si>
+    <t>057164ec5115ef2175b8fb6c05ee602d6bc1e7eb</t>
+  </si>
+  <si>
+    <t>091aff23f7884ee035acab5516e6609ed35aad2e</t>
+  </si>
+  <si>
+    <t>0aaebc7c74b92f0e70deeb001905ca5b4306e9e0</t>
+  </si>
+  <si>
+    <t>0e182c1ab8acf1164b58cfca4e292321c0fa5ded</t>
+  </si>
+  <si>
+    <t>0f2d14a80f9b0970c2975b1328f44411558808fa</t>
+  </si>
+  <si>
+    <t>1cb3c97ac785d575d830b9d4cdeabb933a60813b</t>
+  </si>
+  <si>
+    <t>27cc292e40335201bfa20000526d621e0d65456b</t>
+  </si>
+  <si>
+    <t>2832cef2f0942e9ae300044379ce2725ca6330f5</t>
+  </si>
+  <si>
+    <t>29c5460f8fb83a07128f91fc7f5878cecc6ef505</t>
+  </si>
+  <si>
+    <t>2e17c9680a3d491ae1cb68cc4b679957ad398fab</t>
+  </si>
+  <si>
+    <t>3d8f3f0149e8c61ba229d4a09969f011d31fb456</t>
+  </si>
+  <si>
+    <t>3f5d0e9d64b5feacb4a07b20b3ebf2da8e289e31</t>
+  </si>
+  <si>
+    <t>3fda8916e5f263c4ae480213af68f193dcdfc1de</t>
+  </si>
+  <si>
+    <t>43bc9c63808b0f69b036473558952f9408ff35ea</t>
+  </si>
+  <si>
+    <t>47d1c0f4b845649414860c71b0f5c0e4f59f67fd</t>
+  </si>
+  <si>
+    <t>4e07beb441769df110c1faf2bdebfa6fd262d263</t>
+  </si>
+  <si>
+    <t>5cc94623626b86b7c8fc60f403bd2f60e626b3d6</t>
+  </si>
+  <si>
+    <t>5d5bba4ea855b61fa9951dd18c468848638681ab</t>
+  </si>
+  <si>
+    <t>67db030ef6aba56c19decc2fe0e28827d4e0c9e4</t>
+  </si>
+  <si>
+    <t>6c2ed037af774fddad8a10bb91f464a9f629372c</t>
+  </si>
+  <si>
+    <t>7b30a7c8ddcfeacf6da5f8cd5181429b00396e8a</t>
+  </si>
+  <si>
+    <t>85e80818e4954884656730a42f3847bfe568525d</t>
+  </si>
+  <si>
+    <t>9810a8bc7c590ec316374c21cc9c2d9be1a98f75</t>
+  </si>
+  <si>
+    <t>9b50efc60a817f37aa0998bee202d7724764c538</t>
+  </si>
+  <si>
+    <t>9f884ff0658ca35c4d4283902f67542c4a308595</t>
+  </si>
+  <si>
+    <t>a6b99ee6d6fa395a172134e53314e63c6bc0e14b</t>
+  </si>
+  <si>
+    <t>a78a8a749734361ea9e4d86852d1436d98664afd</t>
+  </si>
+  <si>
+    <t>aceaa0eeb9eb4793936211e34cecbf2d90e5b978</t>
+  </si>
+  <si>
+    <t>ad97f3a942db4db009e1b833a6bfd4780ffa7c74</t>
+  </si>
+  <si>
+    <t>b1bfa19caeb074f590158c6bf8469d72f4463b96</t>
+  </si>
+  <si>
+    <t>b2cabace4ee9b4bbe3f8911178d3700d9e70dccf</t>
+  </si>
+  <si>
+    <t>b82a4a07c6638e3ec455fa1192ae7e993165ca31</t>
+  </si>
+  <si>
+    <t>c87df846536b9441a08e258d3b76d305f193ff14</t>
+  </si>
+  <si>
+    <t>ca20e2181a2790ebf2534c562acc42205e0cbed1</t>
+  </si>
+  <si>
+    <t>cfb2ff20bc7f31ef2ed95b529b9b5b62d0149c76</t>
+  </si>
+  <si>
+    <t>d0c65738ff1a2a8e5bd36032e2e22696806803c1</t>
+  </si>
+  <si>
+    <t>d65352551e653f7eb8d9f907240b99af1ef94fc2</t>
+  </si>
+  <si>
+    <t>df5706dfc76ea434bda905c0676de3452a1c6990</t>
+  </si>
+  <si>
+    <t>e08b46fc9ba6d5f15bf80eef040a00584f0f74a2</t>
+  </si>
+  <si>
+    <t>ead9ef86e15ff3b71eb58c1b7043aeee918b141d</t>
+  </si>
+  <si>
+    <t>fe1362a9ee4bc2d8707703ec30cdfd4c468afd7a</t>
+  </si>
+  <si>
+    <t>Institut umění - Divadelní ústav</t>
+  </si>
+  <si>
+    <t>AL - Umění, architektura, kulturní dědictví</t>
+  </si>
+  <si>
+    <t>AB - Dějiny</t>
+  </si>
+  <si>
+    <t>MKČR</t>
+  </si>
+  <si>
+    <t>MKČR-Institut umění - Divadelní ústav</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Humanities and the Arts</t>
   </si>
 </sst>
 </file>
@@ -428,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,7 +823,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,6 +880,2364 @@
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2">
+        <v>2013</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>23.707001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2">
+        <v>23205</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>142</v>
+      </c>
+      <c r="R2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T2" t="s">
+        <v>144</v>
+      </c>
+      <c r="U2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3">
+        <v>2012</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>10.692</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P3">
+        <v>23205</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>142</v>
+      </c>
+      <c r="R3" t="s">
+        <v>143</v>
+      </c>
+      <c r="S3" t="s">
+        <v>143</v>
+      </c>
+      <c r="T3" t="s">
+        <v>144</v>
+      </c>
+      <c r="U3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>2013</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>23.707001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" t="s">
+        <v>140</v>
+      </c>
+      <c r="P4">
+        <v>23205</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>142</v>
+      </c>
+      <c r="R4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T4" t="s">
+        <v>144</v>
+      </c>
+      <c r="U4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>2012</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>10.692</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s">
+        <v>139</v>
+      </c>
+      <c r="O5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5">
+        <v>23205</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>142</v>
+      </c>
+      <c r="R5" t="s">
+        <v>143</v>
+      </c>
+      <c r="S5" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5" t="s">
+        <v>144</v>
+      </c>
+      <c r="U5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>10.324594</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" t="s">
+        <v>139</v>
+      </c>
+      <c r="O6" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6">
+        <v>23205</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R6" t="s">
+        <v>143</v>
+      </c>
+      <c r="S6" t="s">
+        <v>143</v>
+      </c>
+      <c r="T6" t="s">
+        <v>144</v>
+      </c>
+      <c r="U6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>10.324594</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7">
+        <v>23205</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>142</v>
+      </c>
+      <c r="R7" t="s">
+        <v>143</v>
+      </c>
+      <c r="S7" t="s">
+        <v>143</v>
+      </c>
+      <c r="T7" t="s">
+        <v>144</v>
+      </c>
+      <c r="U7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>2015</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>0.66666669</v>
+      </c>
+      <c r="D8">
+        <v>6.883062799999999</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O8" t="s">
+        <v>140</v>
+      </c>
+      <c r="P8">
+        <v>23205</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>142</v>
+      </c>
+      <c r="R8" t="s">
+        <v>143</v>
+      </c>
+      <c r="S8" t="s">
+        <v>143</v>
+      </c>
+      <c r="T8" t="s">
+        <v>144</v>
+      </c>
+      <c r="U8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>2015</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>10.324594</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O9" t="s">
+        <v>140</v>
+      </c>
+      <c r="P9">
+        <v>23205</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>142</v>
+      </c>
+      <c r="R9" t="s">
+        <v>143</v>
+      </c>
+      <c r="S9" t="s">
+        <v>143</v>
+      </c>
+      <c r="T9" t="s">
+        <v>144</v>
+      </c>
+      <c r="U9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>2015</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>10.324594</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>139</v>
+      </c>
+      <c r="O10" t="s">
+        <v>140</v>
+      </c>
+      <c r="P10">
+        <v>23205</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>142</v>
+      </c>
+      <c r="R10" t="s">
+        <v>143</v>
+      </c>
+      <c r="S10" t="s">
+        <v>143</v>
+      </c>
+      <c r="T10" t="s">
+        <v>144</v>
+      </c>
+      <c r="U10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11">
+        <v>2015</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>10.324594</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O11" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11">
+        <v>23205</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>142</v>
+      </c>
+      <c r="R11" t="s">
+        <v>143</v>
+      </c>
+      <c r="S11" t="s">
+        <v>143</v>
+      </c>
+      <c r="T11" t="s">
+        <v>144</v>
+      </c>
+      <c r="U11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12">
+        <v>2013</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>23.707001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" t="s">
+        <v>140</v>
+      </c>
+      <c r="P12">
+        <v>23205</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>142</v>
+      </c>
+      <c r="R12" t="s">
+        <v>143</v>
+      </c>
+      <c r="S12" t="s">
+        <v>143</v>
+      </c>
+      <c r="T12" t="s">
+        <v>144</v>
+      </c>
+      <c r="U12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13">
+        <v>2015</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>5.1622968</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13">
+        <v>23205</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>142</v>
+      </c>
+      <c r="R13" t="s">
+        <v>143</v>
+      </c>
+      <c r="S13" t="s">
+        <v>143</v>
+      </c>
+      <c r="T13" t="s">
+        <v>144</v>
+      </c>
+      <c r="U13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>10.692</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14">
+        <v>23205</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>142</v>
+      </c>
+      <c r="R14" t="s">
+        <v>143</v>
+      </c>
+      <c r="S14" t="s">
+        <v>143</v>
+      </c>
+      <c r="T14" t="s">
+        <v>144</v>
+      </c>
+      <c r="U14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15">
+        <v>2014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>10.324594</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s">
+        <v>140</v>
+      </c>
+      <c r="P15">
+        <v>23205</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>142</v>
+      </c>
+      <c r="R15" t="s">
+        <v>143</v>
+      </c>
+      <c r="S15" t="s">
+        <v>143</v>
+      </c>
+      <c r="T15" t="s">
+        <v>144</v>
+      </c>
+      <c r="U15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>10.692</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" t="s">
+        <v>111</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>140</v>
+      </c>
+      <c r="P16">
+        <v>23205</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>142</v>
+      </c>
+      <c r="R16" t="s">
+        <v>143</v>
+      </c>
+      <c r="S16" t="s">
+        <v>143</v>
+      </c>
+      <c r="T16" t="s">
+        <v>144</v>
+      </c>
+      <c r="U16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>10.324594</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>140</v>
+      </c>
+      <c r="P17">
+        <v>23205</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>142</v>
+      </c>
+      <c r="R17" t="s">
+        <v>143</v>
+      </c>
+      <c r="S17" t="s">
+        <v>143</v>
+      </c>
+      <c r="T17" t="s">
+        <v>144</v>
+      </c>
+      <c r="U17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18">
+        <v>2012</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>10.692</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O18" t="s">
+        <v>140</v>
+      </c>
+      <c r="P18">
+        <v>23205</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>142</v>
+      </c>
+      <c r="R18" t="s">
+        <v>143</v>
+      </c>
+      <c r="S18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T18" t="s">
+        <v>144</v>
+      </c>
+      <c r="U18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19">
+        <v>2015</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>10.324594</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O19" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19">
+        <v>23205</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>142</v>
+      </c>
+      <c r="R19" t="s">
+        <v>143</v>
+      </c>
+      <c r="S19" t="s">
+        <v>143</v>
+      </c>
+      <c r="T19" t="s">
+        <v>144</v>
+      </c>
+      <c r="U19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20">
+        <v>2012</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10.692</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" t="s">
+        <v>139</v>
+      </c>
+      <c r="O20" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20">
+        <v>23205</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>142</v>
+      </c>
+      <c r="R20" t="s">
+        <v>143</v>
+      </c>
+      <c r="S20" t="s">
+        <v>143</v>
+      </c>
+      <c r="T20" t="s">
+        <v>144</v>
+      </c>
+      <c r="U20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21">
+        <v>2015</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>10.324594</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" t="s">
+        <v>139</v>
+      </c>
+      <c r="O21" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21">
+        <v>23205</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>142</v>
+      </c>
+      <c r="R21" t="s">
+        <v>143</v>
+      </c>
+      <c r="S21" t="s">
+        <v>143</v>
+      </c>
+      <c r="T21" t="s">
+        <v>144</v>
+      </c>
+      <c r="U21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>10.324594</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" t="s">
+        <v>139</v>
+      </c>
+      <c r="O22" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22">
+        <v>23205</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>142</v>
+      </c>
+      <c r="R22" t="s">
+        <v>143</v>
+      </c>
+      <c r="S22" t="s">
+        <v>143</v>
+      </c>
+      <c r="T22" t="s">
+        <v>144</v>
+      </c>
+      <c r="U22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23">
+        <v>2014</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>10.324594</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" t="s">
+        <v>139</v>
+      </c>
+      <c r="O23" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23">
+        <v>23205</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>142</v>
+      </c>
+      <c r="R23" t="s">
+        <v>143</v>
+      </c>
+      <c r="S23" t="s">
+        <v>143</v>
+      </c>
+      <c r="T23" t="s">
+        <v>144</v>
+      </c>
+      <c r="U23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24">
+        <v>2012</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>10.692</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" t="s">
+        <v>139</v>
+      </c>
+      <c r="O24" t="s">
+        <v>140</v>
+      </c>
+      <c r="P24">
+        <v>23205</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>142</v>
+      </c>
+      <c r="R24" t="s">
+        <v>143</v>
+      </c>
+      <c r="S24" t="s">
+        <v>143</v>
+      </c>
+      <c r="T24" t="s">
+        <v>144</v>
+      </c>
+      <c r="U24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25">
+        <v>2014</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>10.324594</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" t="s">
+        <v>120</v>
+      </c>
+      <c r="L25" t="s">
+        <v>139</v>
+      </c>
+      <c r="O25" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25">
+        <v>23205</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>142</v>
+      </c>
+      <c r="R25" t="s">
+        <v>143</v>
+      </c>
+      <c r="S25" t="s">
+        <v>143</v>
+      </c>
+      <c r="T25" t="s">
+        <v>144</v>
+      </c>
+      <c r="U25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26">
+        <v>2015</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>10.324594</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" t="s">
+        <v>139</v>
+      </c>
+      <c r="O26" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26">
+        <v>23205</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>142</v>
+      </c>
+      <c r="R26" t="s">
+        <v>143</v>
+      </c>
+      <c r="S26" t="s">
+        <v>143</v>
+      </c>
+      <c r="T26" t="s">
+        <v>144</v>
+      </c>
+      <c r="U26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27">
+        <v>2015</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>10.324594</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" t="s">
+        <v>96</v>
+      </c>
+      <c r="K27" t="s">
+        <v>122</v>
+      </c>
+      <c r="L27" t="s">
+        <v>139</v>
+      </c>
+      <c r="O27" t="s">
+        <v>140</v>
+      </c>
+      <c r="P27">
+        <v>23205</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>142</v>
+      </c>
+      <c r="R27" t="s">
+        <v>143</v>
+      </c>
+      <c r="S27" t="s">
+        <v>143</v>
+      </c>
+      <c r="T27" t="s">
+        <v>144</v>
+      </c>
+      <c r="U27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28">
+        <v>2013</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>23.707001</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" t="s">
+        <v>96</v>
+      </c>
+      <c r="K28" t="s">
+        <v>123</v>
+      </c>
+      <c r="L28" t="s">
+        <v>139</v>
+      </c>
+      <c r="O28" t="s">
+        <v>140</v>
+      </c>
+      <c r="P28">
+        <v>23205</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>142</v>
+      </c>
+      <c r="R28" t="s">
+        <v>143</v>
+      </c>
+      <c r="S28" t="s">
+        <v>143</v>
+      </c>
+      <c r="T28" t="s">
+        <v>144</v>
+      </c>
+      <c r="U28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29">
+        <v>2013</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>23.707001</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L29" t="s">
+        <v>139</v>
+      </c>
+      <c r="O29" t="s">
+        <v>140</v>
+      </c>
+      <c r="P29">
+        <v>23205</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>142</v>
+      </c>
+      <c r="R29" t="s">
+        <v>143</v>
+      </c>
+      <c r="S29" t="s">
+        <v>143</v>
+      </c>
+      <c r="T29" t="s">
+        <v>144</v>
+      </c>
+      <c r="U29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30">
+        <v>2013</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>23.707001</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" t="s">
+        <v>96</v>
+      </c>
+      <c r="K30" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" t="s">
+        <v>139</v>
+      </c>
+      <c r="O30" t="s">
+        <v>140</v>
+      </c>
+      <c r="P30">
+        <v>23205</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>142</v>
+      </c>
+      <c r="R30" t="s">
+        <v>143</v>
+      </c>
+      <c r="S30" t="s">
+        <v>143</v>
+      </c>
+      <c r="T30" t="s">
+        <v>144</v>
+      </c>
+      <c r="U30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31">
+        <v>2013</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>23.707001</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31" t="s">
+        <v>126</v>
+      </c>
+      <c r="L31" t="s">
+        <v>139</v>
+      </c>
+      <c r="O31" t="s">
+        <v>140</v>
+      </c>
+      <c r="P31">
+        <v>23205</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>142</v>
+      </c>
+      <c r="R31" t="s">
+        <v>143</v>
+      </c>
+      <c r="S31" t="s">
+        <v>143</v>
+      </c>
+      <c r="T31" t="s">
+        <v>144</v>
+      </c>
+      <c r="U31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32">
+        <v>2015</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>10.324594</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" t="s">
+        <v>96</v>
+      </c>
+      <c r="K32" t="s">
+        <v>127</v>
+      </c>
+      <c r="L32" t="s">
+        <v>139</v>
+      </c>
+      <c r="O32" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32">
+        <v>23205</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>142</v>
+      </c>
+      <c r="R32" t="s">
+        <v>143</v>
+      </c>
+      <c r="S32" t="s">
+        <v>143</v>
+      </c>
+      <c r="T32" t="s">
+        <v>144</v>
+      </c>
+      <c r="U32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33">
+        <v>2013</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>23.707001</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" t="s">
+        <v>128</v>
+      </c>
+      <c r="L33" t="s">
+        <v>139</v>
+      </c>
+      <c r="O33" t="s">
+        <v>140</v>
+      </c>
+      <c r="P33">
+        <v>23205</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>142</v>
+      </c>
+      <c r="R33" t="s">
+        <v>143</v>
+      </c>
+      <c r="S33" t="s">
+        <v>143</v>
+      </c>
+      <c r="T33" t="s">
+        <v>144</v>
+      </c>
+      <c r="U33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34">
+        <v>2015</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>10.324594</v>
+      </c>
+      <c r="E34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" t="s">
+        <v>96</v>
+      </c>
+      <c r="K34" t="s">
+        <v>129</v>
+      </c>
+      <c r="L34" t="s">
+        <v>139</v>
+      </c>
+      <c r="O34" t="s">
+        <v>140</v>
+      </c>
+      <c r="P34">
+        <v>23205</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>142</v>
+      </c>
+      <c r="R34" t="s">
+        <v>143</v>
+      </c>
+      <c r="S34" t="s">
+        <v>143</v>
+      </c>
+      <c r="T34" t="s">
+        <v>144</v>
+      </c>
+      <c r="U34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35">
+        <v>2015</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>10.324594</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" t="s">
+        <v>96</v>
+      </c>
+      <c r="K35" t="s">
+        <v>130</v>
+      </c>
+      <c r="L35" t="s">
+        <v>139</v>
+      </c>
+      <c r="O35" t="s">
+        <v>140</v>
+      </c>
+      <c r="P35">
+        <v>23205</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>142</v>
+      </c>
+      <c r="R35" t="s">
+        <v>143</v>
+      </c>
+      <c r="S35" t="s">
+        <v>143</v>
+      </c>
+      <c r="T35" t="s">
+        <v>144</v>
+      </c>
+      <c r="U35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36">
+        <v>2014</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>14.933487</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" t="s">
+        <v>96</v>
+      </c>
+      <c r="K36" t="s">
+        <v>131</v>
+      </c>
+      <c r="L36" t="s">
+        <v>139</v>
+      </c>
+      <c r="O36" t="s">
+        <v>141</v>
+      </c>
+      <c r="P36">
+        <v>23205</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>142</v>
+      </c>
+      <c r="R36" t="s">
+        <v>143</v>
+      </c>
+      <c r="S36" t="s">
+        <v>143</v>
+      </c>
+      <c r="T36" t="s">
+        <v>145</v>
+      </c>
+      <c r="U36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37">
+        <v>2013</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>23.707001</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" t="s">
+        <v>96</v>
+      </c>
+      <c r="K37" t="s">
+        <v>132</v>
+      </c>
+      <c r="L37" t="s">
+        <v>139</v>
+      </c>
+      <c r="O37" t="s">
+        <v>140</v>
+      </c>
+      <c r="P37">
+        <v>23205</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>142</v>
+      </c>
+      <c r="R37" t="s">
+        <v>143</v>
+      </c>
+      <c r="S37" t="s">
+        <v>143</v>
+      </c>
+      <c r="T37" t="s">
+        <v>144</v>
+      </c>
+      <c r="U37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38">
+        <v>2014</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>14.933487</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" t="s">
+        <v>96</v>
+      </c>
+      <c r="K38" t="s">
+        <v>133</v>
+      </c>
+      <c r="L38" t="s">
+        <v>139</v>
+      </c>
+      <c r="O38" t="s">
+        <v>141</v>
+      </c>
+      <c r="P38">
+        <v>23205</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>142</v>
+      </c>
+      <c r="R38" t="s">
+        <v>143</v>
+      </c>
+      <c r="S38" t="s">
+        <v>143</v>
+      </c>
+      <c r="T38" t="s">
+        <v>145</v>
+      </c>
+      <c r="U38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39">
+        <v>2012</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>10.692</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" t="s">
+        <v>96</v>
+      </c>
+      <c r="K39" t="s">
+        <v>134</v>
+      </c>
+      <c r="L39" t="s">
+        <v>139</v>
+      </c>
+      <c r="O39" t="s">
+        <v>140</v>
+      </c>
+      <c r="P39">
+        <v>23205</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>142</v>
+      </c>
+      <c r="R39" t="s">
+        <v>143</v>
+      </c>
+      <c r="S39" t="s">
+        <v>143</v>
+      </c>
+      <c r="T39" t="s">
+        <v>144</v>
+      </c>
+      <c r="U39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40">
+        <v>2014</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>10.324594</v>
+      </c>
+      <c r="E40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" t="s">
+        <v>96</v>
+      </c>
+      <c r="K40" t="s">
+        <v>135</v>
+      </c>
+      <c r="L40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O40" t="s">
+        <v>140</v>
+      </c>
+      <c r="P40">
+        <v>23205</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>142</v>
+      </c>
+      <c r="R40" t="s">
+        <v>143</v>
+      </c>
+      <c r="S40" t="s">
+        <v>143</v>
+      </c>
+      <c r="T40" t="s">
+        <v>144</v>
+      </c>
+      <c r="U40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41">
+        <v>2012</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>10.692</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" t="s">
+        <v>96</v>
+      </c>
+      <c r="K41" t="s">
+        <v>136</v>
+      </c>
+      <c r="L41" t="s">
+        <v>139</v>
+      </c>
+      <c r="O41" t="s">
+        <v>140</v>
+      </c>
+      <c r="P41">
+        <v>23205</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>142</v>
+      </c>
+      <c r="R41" t="s">
+        <v>143</v>
+      </c>
+      <c r="S41" t="s">
+        <v>143</v>
+      </c>
+      <c r="T41" t="s">
+        <v>144</v>
+      </c>
+      <c r="U41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42">
+        <v>2014</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>14.933487</v>
+      </c>
+      <c r="E42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" t="s">
+        <v>96</v>
+      </c>
+      <c r="K42" t="s">
+        <v>137</v>
+      </c>
+      <c r="L42" t="s">
+        <v>139</v>
+      </c>
+      <c r="O42" t="s">
+        <v>140</v>
+      </c>
+      <c r="P42">
+        <v>23205</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>142</v>
+      </c>
+      <c r="R42" t="s">
+        <v>143</v>
+      </c>
+      <c r="S42" t="s">
+        <v>143</v>
+      </c>
+      <c r="T42" t="s">
+        <v>144</v>
+      </c>
+      <c r="U42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43">
+        <v>2013</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>0.5</v>
+      </c>
+      <c r="D43">
+        <v>11.853</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" t="s">
+        <v>96</v>
+      </c>
+      <c r="K43" t="s">
+        <v>138</v>
+      </c>
+      <c r="L43" t="s">
+        <v>139</v>
+      </c>
+      <c r="O43" t="s">
+        <v>140</v>
+      </c>
+      <c r="P43">
+        <v>23205</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>142</v>
+      </c>
+      <c r="R43" t="s">
+        <v>143</v>
+      </c>
+      <c r="S43" t="s">
+        <v>143</v>
+      </c>
+      <c r="T43" t="s">
+        <v>144</v>
+      </c>
+      <c r="U43" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
